--- a/Exercícios-aula3/1.4-exercicio-optus/Moldelagem/1.4-exercicio-optus-fisico.xlsx
+++ b/Exercícios-aula3/1.4-exercicio-optus/Moldelagem/1.4-exercicio-optus-fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.4-exercicio-optus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.4-exercicio-optus\Moldelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D0AB60-6AA5-4179-87C1-5DE97FE8344F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F528AD74-1376-420E-AD8E-16073EC45640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4200" yWindow="7125" windowWidth="11985" windowHeight="11835" xr2:uid="{032476BD-940F-462C-BABE-1FC36CBC3E3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{032476BD-940F-462C-BABE-1FC36CBC3E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>usuario</t>
   </si>
@@ -159,18 +159,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Alan Walker, Faded...</t>
-  </si>
-  <si>
-    <t>Louis Armstrong, What a Wonderful World...</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach,  Air On The G String...</t>
-  </si>
-  <si>
-    <t>Camila Cabello, Havana...</t>
-  </si>
-  <si>
     <t>theLogin</t>
   </si>
   <si>
@@ -181,6 +169,75 @@
   </si>
   <si>
     <t>House Music</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>idArtista</t>
+  </si>
+  <si>
+    <t>nomeArtista</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Havana...</t>
+  </si>
+  <si>
+    <t>Air On The G String...</t>
+  </si>
+  <si>
+    <t>Faded...</t>
+  </si>
+  <si>
+    <t>What a Wonderful World...</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>dataLancamento</t>
+  </si>
+  <si>
+    <t>localizacao</t>
+  </si>
+  <si>
+    <t>quantidadeMinutos</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Musicas pop</t>
+  </si>
+  <si>
+    <t>Musicas Clássicas</t>
+  </si>
+  <si>
+    <t>Musicas Eletrônicas</t>
+  </si>
+  <si>
+    <t>Os melhores do Jazz</t>
+  </si>
+  <si>
+    <t>ATIVO</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>Europa</t>
   </si>
 </sst>
 </file>
@@ -204,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,57 +491,24 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,22 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,10 +545,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA277B67-4285-4202-92D1-F6C35D3EDF48}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,41 +944,57 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="59"/>
+      <c r="J2" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -911,11 +1010,17 @@
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="21">
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -931,11 +1036,17 @@
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="22">
         <v>2</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="23" t="s">
         <v>36</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -951,60 +1062,72 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="J7" s="15">
+        <v>4</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="48"/>
-      <c r="J9" s="39" t="s">
+      <c r="B9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="33"/>
+      <c r="J9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="J10" s="42" t="s">
+      <c r="H10" s="34"/>
+      <c r="J10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1027,8 +1150,8 @@
       <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="J11" s="41">
+      <c r="H11" s="34"/>
+      <c r="J11" s="26">
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -1054,8 +1177,8 @@
       <c r="G12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="J12" s="41">
+      <c r="H12" s="34"/>
+      <c r="J12" s="26">
         <v>2</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -1081,8 +1204,8 @@
       <c r="G13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="J13" s="41">
+      <c r="H13" s="34"/>
+      <c r="J13" s="26">
         <v>3</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -1090,26 +1213,26 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="17">
         <v>4</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="J14" s="41">
+      <c r="H14" s="34"/>
+      <c r="J14" s="26">
         <v>4</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -1117,59 +1240,83 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="42">
+      <c r="J15" s="27">
         <v>5</v>
       </c>
-      <c r="K15" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="K15" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="47" t="s">
+      <c r="K18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -1183,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I19" s="14">
         <v>1</v>
@@ -1194,25 +1341,43 @@
       <c r="K19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="40">
+        <v>42267</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>50</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="28">
-        <v>1</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
         <v>4</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="19">
         <v>2</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>49</v>
+      <c r="F20" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="14">
@@ -1224,11 +1389,29 @@
       <c r="K20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="14">
+        <v>2</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="40">
+        <v>42840</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>60</v>
+      </c>
+      <c r="R20" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1244,40 +1427,76 @@
       <c r="K21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="45">
+      <c r="L21" s="14">
+        <v>3</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="40">
+        <v>43337</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>160</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I22" s="30">
         <v>4</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="30">
         <v>3</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="L22" s="30">
+        <v>4</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="41">
+        <v>42528</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>30</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>1</v>
       </c>
@@ -1285,23 +1504,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="37">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
         <v>2</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="25" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I17:R17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I17:L17"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{44715FCE-2387-4AF6-976A-571DC0F6395A}"/>
